--- a/data/scheduling_DNN/predict/result24.xlsx
+++ b/data/scheduling_DNN/predict/result24.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         <v>0.9158320426940918</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3704919517040253</v>
+        <v>0.4914345741271973</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -632,7 +632,7 @@
         <v>1.083549022674561</v>
       </c>
       <c r="V3" t="n">
-        <v>1.134878277778625</v>
+        <v>0.4802040457725525</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -700,7 +700,7 @@
         <v>0.9028561115264893</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8779221773147583</v>
+        <v>0.4792518615722656</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -768,7 +768,7 @@
         <v>0.9068429470062256</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8928291797637939</v>
+        <v>0.4223143458366394</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -836,7 +836,7 @@
         <v>0.8921949863433838</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9356223344802856</v>
+        <v>0.4226258993148804</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -904,7 +904,7 @@
         <v>0.9592020511627197</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8749681115150452</v>
+        <v>0.5380850434303284</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -972,7 +972,7 @@
         <v>0.9031510353088379</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8637312650680542</v>
+        <v>0.4226645827293396</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1040,7 +1040,7 @@
         <v>0.8834061622619629</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8734636902809143</v>
+        <v>0.4411333203315735</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1108,7 +1108,7 @@
         <v>0.869596004486084</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4406751394271851</v>
+        <v>0.5379722714424133</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1176,7 +1176,7 @@
         <v>0.8622729778289795</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6050354242324829</v>
+        <v>0.6051912903785706</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1244,7 +1244,7 @@
         <v>0.8498358726501465</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4006739258766174</v>
+        <v>0.4923393726348877</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1312,7 +1312,7 @@
         <v>0.8628380298614502</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8766837120056152</v>
+        <v>0.4712569713592529</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1380,7 +1380,7 @@
         <v>0.8531289100646973</v>
       </c>
       <c r="V14" t="n">
-        <v>0.886800229549408</v>
+        <v>0.3609372973442078</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1448,7 +1448,7 @@
         <v>0.8970530033111572</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3899917602539062</v>
+        <v>0.3671593070030212</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1516,7 +1516,7 @@
         <v>0.8678269386291504</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9116283655166626</v>
+        <v>0.3647720217704773</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1584,7 +1584,7 @@
         <v>0.8710651397705078</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3641266822814941</v>
+        <v>0.5378978252410889</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1652,7 +1652,7 @@
         <v>0.8639440536499023</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4960019290447235</v>
+        <v>0.5612205266952515</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1720,7 +1720,7 @@
         <v>0.8588051795959473</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6049755811691284</v>
+        <v>0.5879279971122742</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1788,7 +1788,7 @@
         <v>0.8584301471710205</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8785241842269897</v>
+        <v>0.378571629524231</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1856,7 +1856,7 @@
         <v>0.8625400066375732</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3952420055866241</v>
+        <v>0.4833751916885376</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1924,7 +1924,7 @@
         <v>0.5215189456939697</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8830257654190063</v>
+        <v>0.3648877739906311</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1992,7 +1992,7 @@
         <v>0.5474259853363037</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9145216345787048</v>
+        <v>0.6086816191673279</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2060,7 +2060,7 @@
         <v>0.5324690341949463</v>
       </c>
       <c r="V24" t="n">
-        <v>0.436797171831131</v>
+        <v>0.4211356043815613</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2128,7 +2128,7 @@
         <v>0.5443720817565918</v>
       </c>
       <c r="V25" t="n">
-        <v>0.395758181810379</v>
+        <v>0.5905375480651855</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2196,7 +2196,7 @@
         <v>0.5174431800842285</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3984176814556122</v>
+        <v>0.5858365893363953</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2264,7 +2264,7 @@
         <v>0.5199580192565918</v>
       </c>
       <c r="V27" t="n">
-        <v>0.412541389465332</v>
+        <v>0.4384209513664246</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2332,7 +2332,7 @@
         <v>0.5705280303955078</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4958333969116211</v>
+        <v>0.8805574774742126</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2400,7 +2400,7 @@
         <v>0.5360360145568848</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3871228694915771</v>
+        <v>0.5874905586242676</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2468,7 +2468,7 @@
         <v>0.5123929977416992</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8747400045394897</v>
+        <v>0.6566483378410339</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2536,7 +2536,7 @@
         <v>0.5140321254730225</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4988834857940674</v>
+        <v>0.4384316802024841</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2604,7 +2604,7 @@
         <v>0.5264840126037598</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4378505647182465</v>
+        <v>0.8821443915367126</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2672,7 +2672,7 @@
         <v>0.5515899658203125</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4853076338768005</v>
+        <v>0.6240726113319397</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2740,7 +2740,7 @@
         <v>0.5347549915313721</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3984061181545258</v>
+        <v>0.6516602039337158</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2808,7 +2808,7 @@
         <v>0.5150079727172852</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3844846487045288</v>
+        <v>0.4844552874565125</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2876,7 +2876,7 @@
         <v>0.513552188873291</v>
       </c>
       <c r="V36" t="n">
-        <v>0.883190393447876</v>
+        <v>0.4554443955421448</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2944,7 +2944,7 @@
         <v>0.5116209983825684</v>
       </c>
       <c r="V37" t="n">
-        <v>0.384563535451889</v>
+        <v>0.3609561920166016</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3012,7 +3012,7 @@
         <v>0.5144779682159424</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3949743509292603</v>
+        <v>0.689443826675415</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3080,7 +3080,7 @@
         <v>0.5155918598175049</v>
       </c>
       <c r="V39" t="n">
-        <v>0.9926154613494873</v>
+        <v>0.4810751676559448</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3148,7 +3148,7 @@
         <v>0.5169968605041504</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9157592058181763</v>
+        <v>0.3786981105804443</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3216,7 +3216,7 @@
         <v>0.5230939388275146</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8478449583053589</v>
+        <v>0.3877466320991516</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3284,7 +3284,7 @@
         <v>0.3878488540649414</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4435101747512817</v>
+        <v>0.4837238192558289</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3352,7 +3352,7 @@
         <v>0.4163708686828613</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9040524959564209</v>
+        <v>0.4554891586303711</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3420,7 +3420,7 @@
         <v>0.3840310573577881</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4995069205760956</v>
+        <v>0.4223841428756714</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3488,7 +3488,7 @@
         <v>0.4026141166687012</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9337388277053833</v>
+        <v>0.6095840334892273</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3556,7 +3556,7 @@
         <v>0.3885538578033447</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4987139701843262</v>
+        <v>0.6896112561225891</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3624,7 +3624,7 @@
         <v>0.3955121040344238</v>
       </c>
       <c r="V47" t="n">
-        <v>0.9219222664833069</v>
+        <v>0.4223563671112061</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3692,7 +3692,7 @@
         <v>0.390099048614502</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4610804915428162</v>
+        <v>0.8878307342529297</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3760,7 +3760,7 @@
         <v>0.3808498382568359</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4882013201713562</v>
+        <v>0.7900906205177307</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3828,7 +3828,7 @@
         <v>0.3873260021209717</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4823431968688965</v>
+        <v>0.4550826549530029</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3896,7 +3896,7 @@
         <v>0.3878731727600098</v>
       </c>
       <c r="V51" t="n">
-        <v>0.858806312084198</v>
+        <v>0.7839659452438354</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3964,7 +3964,7 @@
         <v>0.4749269485473633</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4839621782302856</v>
+        <v>0.7939709424972534</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4032,7 +4032,7 @@
         <v>0.3870069980621338</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4651934802532196</v>
+        <v>0.7898924350738525</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4100,7 +4100,7 @@
         <v>0.3869731426239014</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6052616834640503</v>
+        <v>0.5912466049194336</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4168,7 +4168,7 @@
         <v>0.3853850364685059</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8666843771934509</v>
+        <v>0.6179987788200378</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4236,7 +4236,7 @@
         <v>0.3874011039733887</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4877405762672424</v>
+        <v>0.4888110160827637</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4304,7 +4304,7 @@
         <v>0.3864510059356689</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4003206193447113</v>
+        <v>0.4795461297035217</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4372,7 +4372,7 @@
         <v>0.4420790672302246</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4000369906425476</v>
+        <v>0.5606808662414551</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4440,7 +4440,7 @@
         <v>0.3854479789733887</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3633668422698975</v>
+        <v>0.7040767669677734</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4508,7 +4508,7 @@
         <v>0.3869140148162842</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8763658404350281</v>
+        <v>0.5379284620285034</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4576,7 +4576,7 @@
         <v>0.3865559101104736</v>
       </c>
       <c r="V61" t="n">
-        <v>0.486141711473465</v>
+        <v>0.7100529074668884</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4644,7 +4644,7 @@
         <v>0.8937709331512451</v>
       </c>
       <c r="V62" t="n">
-        <v>0.465273380279541</v>
+        <v>0.5611301064491272</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4712,7 +4712,7 @@
         <v>0.8729770183563232</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4136041104793549</v>
+        <v>0.5552331805229187</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4780,7 +4780,7 @@
         <v>0.8688240051269531</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4061900079250336</v>
+        <v>0.6046422719955444</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4848,7 +4848,7 @@
         <v>0.880122184753418</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6049280762672424</v>
+        <v>0.4408747553825378</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4916,7 +4916,7 @@
         <v>0.923098087310791</v>
       </c>
       <c r="V66" t="n">
-        <v>1.140693664550781</v>
+        <v>0.4398151040077209</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4984,7 +4984,7 @@
         <v>0.8765921592712402</v>
       </c>
       <c r="V67" t="n">
-        <v>0.384619802236557</v>
+        <v>0.6094298958778381</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5052,7 +5052,7 @@
         <v>0.886073112487793</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4110889136791229</v>
+        <v>0.6587436199188232</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5120,7 +5120,7 @@
         <v>0.8742110729217529</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4125148355960846</v>
+        <v>0.4854723215103149</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5188,7 +5188,7 @@
         <v>0.9114389419555664</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4885779619216919</v>
+        <v>0.5562270879745483</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5256,7 +5256,7 @@
         <v>0.863980770111084</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3923904299736023</v>
+        <v>0.4801205992698669</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5324,7 +5324,7 @@
         <v>0.8579771518707275</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3937309086322784</v>
+        <v>0.6281869411468506</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5392,7 +5392,7 @@
         <v>0.8670721054077148</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4607807993888855</v>
+        <v>0.4844722747802734</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5460,7 +5460,7 @@
         <v>0.9190080165863037</v>
       </c>
       <c r="V74" t="n">
-        <v>0.9017800092697144</v>
+        <v>0.6181319952011108</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5528,7 +5528,7 @@
         <v>0.8657910823822021</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8674499988555908</v>
+        <v>0.4850061535835266</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5596,7 +5596,7 @@
         <v>0.8570520877838135</v>
       </c>
       <c r="V76" t="n">
-        <v>0.9931710362434387</v>
+        <v>0.4765533804893494</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.8620641231536865</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8833483457565308</v>
+        <v>0.7964216470718384</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>0.9132330417633057</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6045604944229126</v>
+        <v>0.7902021408081055</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5800,7 +5800,7 @@
         <v>0.8653810024261475</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3938429355621338</v>
+        <v>0.4796501398086548</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5868,7 +5868,7 @@
         <v>0.8517961502075195</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4126917123794556</v>
+        <v>0.4849292635917664</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5936,7 +5936,7 @@
         <v>0.8566889762878418</v>
       </c>
       <c r="V81" t="n">
-        <v>0.875504732131958</v>
+        <v>0.5380772948265076</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6004,7 +6004,7 @@
         <v>0.6077280044555664</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4984641671180725</v>
+        <v>0.6566144227981567</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6072,7 +6072,7 @@
         <v>0.5324530601501465</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4971217811107635</v>
+        <v>0.4211761355400085</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6140,7 +6140,7 @@
         <v>0.5195989608764648</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5021259188652039</v>
+        <v>0.4226563572883606</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6208,7 +6208,7 @@
         <v>0.5172631740570068</v>
       </c>
       <c r="V85" t="n">
-        <v>0.8477691411972046</v>
+        <v>0.6485797166824341</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6276,7 +6276,7 @@
         <v>0.5184378623962402</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4656548202037811</v>
+        <v>0.4427711367607117</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.5135190486907959</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3902694582939148</v>
+        <v>0.7033109068870544</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6412,7 +6412,7 @@
         <v>0.5161938667297363</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3616110384464264</v>
+        <v>0.5379763245582581</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6480,7 +6480,7 @@
         <v>0.51385498046875</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3665784895420074</v>
+        <v>0.5887073874473572</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6548,7 +6548,7 @@
         <v>0.52976393699646</v>
       </c>
       <c r="V90" t="n">
-        <v>1.13431179523468</v>
+        <v>0.4757353663444519</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6616,7 +6616,7 @@
         <v>0.5083980560302734</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4127112627029419</v>
+        <v>0.4005610942840576</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6684,7 +6684,7 @@
         <v>0.5183050632476807</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4975743293762207</v>
+        <v>0.3609153628349304</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6752,7 +6752,7 @@
         <v>0.5741360187530518</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4597306251525879</v>
+        <v>0.4721607565879822</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6820,7 +6820,7 @@
         <v>0.5157358646392822</v>
       </c>
       <c r="V94" t="n">
-        <v>0.8785074949264526</v>
+        <v>0.4870217442512512</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6888,7 +6888,7 @@
         <v>0.5177850723266602</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4956356287002563</v>
+        <v>0.7839377522468567</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6956,7 +6956,7 @@
         <v>0.5170001983642578</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3641241192817688</v>
+        <v>0.6282039284706116</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7024,7 +7024,7 @@
         <v>0.5156979560852051</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6050772666931152</v>
+        <v>0.6487356424331665</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7092,7 +7092,7 @@
         <v>0.5150308609008789</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4981562793254852</v>
+        <v>0.3866152763366699</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7160,7 +7160,7 @@
         <v>0.5117359161376953</v>
       </c>
       <c r="V99" t="n">
-        <v>1.134880065917969</v>
+        <v>0.6077598333358765</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7228,7 +7228,7 @@
         <v>0.5169169902801514</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8857966065406799</v>
+        <v>0.3611143827438354</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7296,7 +7296,7 @@
         <v>0.5151300430297852</v>
       </c>
       <c r="V101" t="n">
-        <v>1.094058632850647</v>
+        <v>0.4399700164794922</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7364,7 +7364,7 @@
         <v>0.4011440277099609</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4880312979221344</v>
+        <v>0.7102096080780029</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7432,7 +7432,7 @@
         <v>0.3933029174804688</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4064774215221405</v>
+        <v>0.4788762331008911</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7500,7 +7500,7 @@
         <v>0.4623069763183594</v>
       </c>
       <c r="V104" t="n">
-        <v>0.865297794342041</v>
+        <v>0.8876227140426636</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7568,7 +7568,7 @@
         <v>0.4016380310058594</v>
       </c>
       <c r="V105" t="n">
-        <v>0.406478077173233</v>
+        <v>0.8844561576843262</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7636,7 +7636,7 @@
         <v>0.3869550228118896</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6046428084373474</v>
+        <v>0.5887113809585571</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7704,7 +7704,7 @@
         <v>0.3876049518585205</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4880166053771973</v>
+        <v>0.4770028591156006</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7772,7 +7772,7 @@
         <v>0.3848268985748291</v>
       </c>
       <c r="V108" t="n">
-        <v>1.137578129768372</v>
+        <v>0.6536902785301208</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7840,7 +7840,7 @@
         <v>0.3837590217590332</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8469048142433167</v>
+        <v>0.6074541807174683</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7908,7 +7908,7 @@
         <v>0.3923969268798828</v>
       </c>
       <c r="V110" t="n">
-        <v>1.139020681381226</v>
+        <v>0.3873438239097595</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7976,7 +7976,7 @@
         <v>0.3905560970306396</v>
       </c>
       <c r="V111" t="n">
-        <v>0.3984429836273193</v>
+        <v>0.5881173610687256</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8044,7 +8044,7 @@
         <v>0.4197750091552734</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4008109867572784</v>
+        <v>0.7040725350379944</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8112,7 +8112,7 @@
         <v>0.3878428936004639</v>
       </c>
       <c r="V113" t="n">
-        <v>0.9470934271812439</v>
+        <v>0.6075444221496582</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8180,7 +8180,7 @@
         <v>0.3895189762115479</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4112464785575867</v>
+        <v>0.48039710521698</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8248,7 +8248,7 @@
         <v>0.3900959491729736</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6047945022583008</v>
+        <v>0.6075578927993774</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8316,7 +8316,7 @@
         <v>0.3928630352020264</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4063959121704102</v>
+        <v>0.6980237364768982</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8384,7 +8384,7 @@
         <v>0.3898940086364746</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3959660828113556</v>
+        <v>0.3610076904296875</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8452,7 +8452,7 @@
         <v>0.4062461853027344</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4653478264808655</v>
+        <v>0.4868853092193604</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8520,7 +8520,7 @@
         <v>0.3928899765014648</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8605369925498962</v>
+        <v>0.4054241180419922</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8588,7 +8588,7 @@
         <v>0.4058489799499512</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3983160853385925</v>
+        <v>0.5379003286361694</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8656,7 +8656,7 @@
         <v>0.3893370628356934</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3912006020545959</v>
+        <v>0.438488781452179</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8724,7 +8724,7 @@
         <v>0.9344758987426758</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4964534044265747</v>
+        <v>0.3871904611587524</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8792,7 +8792,7 @@
         <v>0.923220157623291</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4974161386489868</v>
+        <v>0.6106979846954346</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8860,7 +8860,7 @@
         <v>0.886603832244873</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3845931589603424</v>
+        <v>0.5890090465545654</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8928,7 +8928,7 @@
         <v>0.8658430576324463</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4125269949436188</v>
+        <v>0.4718003869056702</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8996,7 +8996,7 @@
         <v>0.9301521778106689</v>
       </c>
       <c r="V126" t="n">
-        <v>0.9064031839370728</v>
+        <v>0.6181443929672241</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>0.8670220375061035</v>
       </c>
       <c r="V127" t="n">
-        <v>1.092794299125671</v>
+        <v>0.7101702690124512</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9132,7 +9132,7 @@
         <v>0.8588049411773682</v>
       </c>
       <c r="V128" t="n">
-        <v>0.9331178665161133</v>
+        <v>0.366996169090271</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9200,7 +9200,7 @@
         <v>0.8632090091705322</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4580435454845428</v>
+        <v>0.6539028882980347</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9268,7 +9268,7 @@
         <v>0.9286599159240723</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4968459904193878</v>
+        <v>0.3610337376594543</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9336,7 +9336,7 @@
         <v>0.8627760410308838</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3963127732276917</v>
+        <v>0.6984093189239502</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9404,7 +9404,7 @@
         <v>0.8678469657897949</v>
       </c>
       <c r="V132" t="n">
-        <v>0.495694100856781</v>
+        <v>0.8854296207427979</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9472,7 +9472,7 @@
         <v>0.8895740509033203</v>
       </c>
       <c r="V133" t="n">
-        <v>0.9344143867492676</v>
+        <v>0.6077224016189575</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9540,7 +9540,7 @@
         <v>0.9131011962890625</v>
       </c>
       <c r="V134" t="n">
-        <v>0.8843300342559814</v>
+        <v>0.6490487456321716</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9608,7 +9608,7 @@
         <v>0.8853030204772949</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4625407457351685</v>
+        <v>0.8821812868118286</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9676,7 +9676,7 @@
         <v>0.8666760921478271</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5182637572288513</v>
+        <v>0.8856419324874878</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9744,7 +9744,7 @@
         <v>0.8663780689239502</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5006562471389771</v>
+        <v>0.5378825664520264</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9812,7 +9812,7 @@
         <v>0.9638628959655762</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4968574047088623</v>
+        <v>0.5380626916885376</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -9880,7 +9880,7 @@
         <v>0.8622651100158691</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4985814392566681</v>
+        <v>0.6464481353759766</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -9948,7 +9948,7 @@
         <v>0.8692471981048584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.412676602602005</v>
+        <v>0.8805928230285645</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10016,7 +10016,7 @@
         <v>0.8623571395874023</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5019960403442383</v>
+        <v>0.5853784084320068</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10084,7 +10084,7 @@
         <v>0.6044659614562988</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3828761875629425</v>
+        <v>0.4035907387733459</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10152,7 +10152,7 @@
         <v>0.5224449634552002</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3983300626277924</v>
+        <v>0.6976108551025391</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10220,7 +10220,7 @@
         <v>0.5226070880889893</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4970306158065796</v>
+        <v>0.4068009853363037</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10288,7 +10288,7 @@
         <v>0.5178959369659424</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4961790442466736</v>
+        <v>0.7899690866470337</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10356,7 +10356,7 @@
         <v>0.5190908908843994</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4126364290714264</v>
+        <v>0.3609158396720886</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10424,7 +10424,7 @@
         <v>0.5860030651092529</v>
       </c>
       <c r="V147" t="n">
-        <v>0.8745095133781433</v>
+        <v>0.4223513603210449</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10492,7 +10492,7 @@
         <v>0.5164039134979248</v>
       </c>
       <c r="V148" t="n">
-        <v>0.8760577440261841</v>
+        <v>0.6980326771736145</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10560,7 +10560,7 @@
         <v>0.5191459655761719</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4847917854785919</v>
+        <v>0.5172411203384399</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10628,7 +10628,7 @@
         <v>0.5155618190765381</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4126447439193726</v>
+        <v>0.3609938621520996</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10696,7 +10696,7 @@
         <v>0.5148890018463135</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4640147089958191</v>
+        <v>0.4223676919937134</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10764,7 +10764,7 @@
         <v>0.5184359550476074</v>
       </c>
       <c r="V152" t="n">
-        <v>0.9054843783378601</v>
+        <v>0.7962723970413208</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10832,7 +10832,7 @@
         <v>0.5217199325561523</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3924970030784607</v>
+        <v>0.5378905534744263</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -10900,7 +10900,7 @@
         <v>0.5131559371948242</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4624150097370148</v>
+        <v>0.6076244711875916</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10968,7 +10968,7 @@
         <v>0.518787145614624</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3983190655708313</v>
+        <v>0.4030694961547852</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11036,7 +11036,7 @@
         <v>0.5176479816436768</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4968828856945038</v>
+        <v>0.3609596490859985</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11104,7 +11104,7 @@
         <v>0.5177152156829834</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5595030188560486</v>
+        <v>0.5915652513504028</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11172,7 +11172,7 @@
         <v>0.5725910663604736</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8831717967987061</v>
+        <v>0.5570175051689148</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11240,7 +11240,7 @@
         <v>0.5187699794769287</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3982802331447601</v>
+        <v>0.4902856349945068</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11308,7 +11308,7 @@
         <v>0.5169379711151123</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4842941462993622</v>
+        <v>0.8822028636932373</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11376,7 +11376,7 @@
         <v>0.5167171955108643</v>
       </c>
       <c r="V161" t="n">
-        <v>0.8431740999221802</v>
+        <v>0.4223188161849976</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11444,7 +11444,7 @@
         <v>0.3881561756134033</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8691241145133972</v>
+        <v>0.4038267731666565</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11512,7 +11512,7 @@
         <v>0.3847639560699463</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4856376051902771</v>
+        <v>0.5161032676696777</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11580,7 +11580,7 @@
         <v>0.4290227890014648</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4844225645065308</v>
+        <v>0.6058166027069092</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11648,7 +11648,7 @@
         <v>0.3951821327209473</v>
       </c>
       <c r="V165" t="n">
-        <v>0.8914114236831665</v>
+        <v>0.5379694104194641</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11716,7 +11716,7 @@
         <v>0.3900890350341797</v>
       </c>
       <c r="V166" t="n">
-        <v>0.8989601135253906</v>
+        <v>0.7958468198776245</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11784,7 +11784,7 @@
         <v>0.3875689506530762</v>
       </c>
       <c r="V167" t="n">
-        <v>1.136374592781067</v>
+        <v>0.4222974181175232</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -11852,7 +11852,7 @@
         <v>0.3894119262695312</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4885025024414062</v>
+        <v>0.438521683216095</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -11920,7 +11920,7 @@
         <v>0.3889319896697998</v>
       </c>
       <c r="V169" t="n">
-        <v>0.8822212815284729</v>
+        <v>0.4719034433364868</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11988,7 +11988,7 @@
         <v>0.4485461711883545</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4851939678192139</v>
+        <v>0.7033395767211914</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12056,7 +12056,7 @@
         <v>0.3905320167541504</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3984098434448242</v>
+        <v>0.6077727079391479</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12124,7 +12124,7 @@
         <v>0.3975460529327393</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3951497375965118</v>
+        <v>0.6954771280288696</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12192,7 +12192,7 @@
         <v>0.3932430744171143</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6051145195960999</v>
+        <v>0.3611395955085754</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12260,7 +12260,7 @@
         <v>0.3954341411590576</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4861795604228973</v>
+        <v>0.6981954574584961</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -12328,7 +12328,7 @@
         <v>0.3906009197235107</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4820413291454315</v>
+        <v>0.5379487872123718</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -12396,7 +12396,7 @@
         <v>0.402489185333252</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3966561555862427</v>
+        <v>0.4843006730079651</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.407020092010498</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4880890846252441</v>
+        <v>0.4425503611564636</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -12532,7 +12532,7 @@
         <v>0.4001131057739258</v>
       </c>
       <c r="V178" t="n">
-        <v>0.398441344499588</v>
+        <v>0.6180075407028198</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>0.3924248218536377</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6052444577217102</v>
+        <v>0.3657307028770447</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -12668,7 +12668,7 @@
         <v>0.3933250904083252</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4844700396060944</v>
+        <v>0.422416090965271</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -12736,7 +12736,7 @@
         <v>0.4109649658203125</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6052460670471191</v>
+        <v>0.7011902928352356</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>0.930757999420166</v>
       </c>
       <c r="V182" t="n">
-        <v>0.863656759262085</v>
+        <v>0.4029312133789062</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -12872,7 +12872,7 @@
         <v>0.9007179737091064</v>
       </c>
       <c r="V183" t="n">
-        <v>0.8809120059013367</v>
+        <v>0.4214755892753601</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -12940,7 +12940,7 @@
         <v>0.8538830280303955</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4960415065288544</v>
+        <v>0.6865060329437256</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13008,7 +13008,7 @@
         <v>0.8625741004943848</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4855228364467621</v>
+        <v>0.455345094203949</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13076,7 +13076,7 @@
         <v>0.9210469722747803</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4838842451572418</v>
+        <v>0.4226717352867126</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13144,7 +13144,7 @@
         <v>0.8796489238739014</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4860621690750122</v>
+        <v>0.6563281416893005</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13212,7 +13212,7 @@
         <v>0.8608701229095459</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4877897799015045</v>
+        <v>0.8004910945892334</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13280,7 +13280,7 @@
         <v>0.8589789867401123</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4860221147537231</v>
+        <v>0.5662949681282043</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13348,7 +13348,7 @@
         <v>0.9136989116668701</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5882794260978699</v>
+        <v>0.440751314163208</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -13416,7 +13416,7 @@
         <v>0.908707857131958</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4126898944377899</v>
+        <v>0.5618018507957458</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -13484,7 +13484,7 @@
         <v>0.8630239963531494</v>
       </c>
       <c r="V192" t="n">
-        <v>0.8782666921615601</v>
+        <v>0.4211025238037109</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -13552,7 +13552,7 @@
         <v>0.854511022567749</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4983054101467133</v>
+        <v>0.5378779172897339</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -13620,7 +13620,7 @@
         <v>0.9141519069671631</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4006429314613342</v>
+        <v>0.8804707527160645</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -13688,7 +13688,7 @@
         <v>0.863649845123291</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3969708681106567</v>
+        <v>0.607180655002594</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -13756,7 +13756,7 @@
         <v>0.8595011234283447</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4835478961467743</v>
+        <v>0.4805735945701599</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -13824,7 +13824,7 @@
         <v>0.8564651012420654</v>
       </c>
       <c r="V197" t="n">
-        <v>0.439713716506958</v>
+        <v>0.5903171300888062</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -13892,7 +13892,7 @@
         <v>0.91792893409729</v>
       </c>
       <c r="V198" t="n">
-        <v>0.9096080660820007</v>
+        <v>0.3671503067016602</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -13960,7 +13960,7 @@
         <v>0.8616671562194824</v>
       </c>
       <c r="V199" t="n">
-        <v>0.605170726776123</v>
+        <v>0.4227635264396667</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14028,7 +14028,7 @@
         <v>0.8541388511657715</v>
       </c>
       <c r="V200" t="n">
-        <v>1.14024806022644</v>
+        <v>0.6080566644668579</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14096,7 +14096,7 @@
         <v>0.8800570964813232</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8580765724182129</v>
+        <v>0.4400861263275146</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14164,7 +14164,7 @@
         <v>0.5678768157958984</v>
       </c>
       <c r="V202" t="n">
-        <v>0.497628778219223</v>
+        <v>0.4553601741790771</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14232,7 +14232,7 @@
         <v>0.514833927154541</v>
       </c>
       <c r="V203" t="n">
-        <v>0.897040069103241</v>
+        <v>0.5378905534744263</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14300,7 +14300,7 @@
         <v>0.5260651111602783</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4042100310325623</v>
+        <v>0.480116069316864</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14368,7 +14368,7 @@
         <v>0.517125129699707</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4974850118160248</v>
+        <v>0.6095789670944214</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -14436,7 +14436,7 @@
         <v>0.5141780376434326</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4859782159328461</v>
+        <v>0.3665919899940491</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -14504,7 +14504,7 @@
         <v>0.5359299182891846</v>
       </c>
       <c r="V207" t="n">
-        <v>1.13539731502533</v>
+        <v>0.4806921482086182</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -14572,7 +14572,7 @@
         <v>0.5157561302185059</v>
       </c>
       <c r="V208" t="n">
-        <v>0.8686421513557434</v>
+        <v>0.480150043964386</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -14640,7 +14640,7 @@
         <v>0.5315990447998047</v>
       </c>
       <c r="V209" t="n">
-        <v>1.139892101287842</v>
+        <v>0.4207318425178528</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -14708,7 +14708,7 @@
         <v>0.51698899269104</v>
       </c>
       <c r="V210" t="n">
-        <v>0.8741369247436523</v>
+        <v>0.6840715408325195</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -14776,7 +14776,7 @@
         <v>0.5223329067230225</v>
       </c>
       <c r="V211" t="n">
-        <v>0.372824490070343</v>
+        <v>0.4834600687026978</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -14844,7 +14844,7 @@
         <v>0.520453929901123</v>
       </c>
       <c r="V212" t="n">
-        <v>0.8785387277603149</v>
+        <v>0.3867952823638916</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -14912,7 +14912,7 @@
         <v>0.5225491523742676</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5021325945854187</v>
+        <v>0.4033211469650269</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -14980,7 +14980,7 @@
         <v>0.5179979801177979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6044735908508301</v>
+        <v>0.3867775201797485</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -15048,7 +15048,7 @@
         <v>0.5212459564208984</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4988753199577332</v>
+        <v>0.4768378734588623</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -15116,7 +15116,7 @@
         <v>0.5182290077209473</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4860036969184875</v>
+        <v>0.4227662682533264</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -15184,7 +15184,7 @@
         <v>0.5201139450073242</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4325420260429382</v>
+        <v>0.7030863761901855</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -15252,7 +15252,7 @@
         <v>0.5731589794158936</v>
       </c>
       <c r="V218" t="n">
-        <v>0.3963442742824554</v>
+        <v>0.5620260834693909</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -15320,7 +15320,7 @@
         <v>0.5226938724517822</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8464425206184387</v>
+        <v>0.473851203918457</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -15388,7 +15388,7 @@
         <v>0.5205881595611572</v>
       </c>
       <c r="V220" t="n">
-        <v>0.8867681622505188</v>
+        <v>0.3610464334487915</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -15456,7 +15456,7 @@
         <v>0.5168888568878174</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4830644130706787</v>
+        <v>0.475893497467041</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -15524,7 +15524,7 @@
         <v>0.3887159824371338</v>
       </c>
       <c r="V222" t="n">
-        <v>0.8689268231391907</v>
+        <v>0.8822290897369385</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -15592,7 +15592,7 @@
         <v>0.3898229598999023</v>
       </c>
       <c r="V223" t="n">
-        <v>0.364312082529068</v>
+        <v>0.5538752675056458</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -15660,7 +15660,7 @@
         <v>0.4194519519805908</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4844118654727936</v>
+        <v>0.5379613637924194</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -15728,7 +15728,7 @@
         <v>0.3898060321807861</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4126857817173004</v>
+        <v>0.4212579131126404</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -15796,7 +15796,7 @@
         <v>0.3921728134155273</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4990210831165314</v>
+        <v>0.7098118662834167</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -15864,7 +15864,7 @@
         <v>0.3946051597595215</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4960456192493439</v>
+        <v>0.3887149095535278</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -15932,7 +15932,7 @@
         <v>0.3947889804840088</v>
       </c>
       <c r="V228" t="n">
-        <v>0.8786569833755493</v>
+        <v>0.537911593914032</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16000,7 +16000,7 @@
         <v>0.4008910655975342</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4845859408378601</v>
+        <v>0.3868059515953064</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16068,7 +16068,7 @@
         <v>0.4470059871673584</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3900534510612488</v>
+        <v>0.8854069709777832</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16136,7 +16136,7 @@
         <v>0.3917229175567627</v>
       </c>
       <c r="V231" t="n">
-        <v>0.8146159648895264</v>
+        <v>0.6980137825012207</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16204,7 +16204,7 @@
         <v>0.395392894744873</v>
       </c>
       <c r="V232" t="n">
-        <v>0.370011568069458</v>
+        <v>0.7903261780738831</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -16272,7 +16272,7 @@
         <v>0.3932290077209473</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4824457466602325</v>
+        <v>0.6980226039886475</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -16340,7 +16340,7 @@
         <v>0.3940830230712891</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4823495447635651</v>
+        <v>0.3610904812812805</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -16408,7 +16408,7 @@
         <v>0.3967359066009521</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6048383116722107</v>
+        <v>0.3666130304336548</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -16476,7 +16476,7 @@
         <v>0.4329109191894531</v>
       </c>
       <c r="V236" t="n">
-        <v>0.8773793578147888</v>
+        <v>0.4890546202659607</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -16544,7 +16544,7 @@
         <v>0.3919219970703125</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6742950677871704</v>
+        <v>0.591393768787384</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -16612,7 +16612,7 @@
         <v>0.3912811279296875</v>
       </c>
       <c r="V238" t="n">
-        <v>0.605105459690094</v>
+        <v>0.6571362614631653</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -16680,7 +16680,7 @@
         <v>0.3863692283630371</v>
       </c>
       <c r="V239" t="n">
-        <v>1.007355451583862</v>
+        <v>0.36097651720047</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -16748,7 +16748,7 @@
         <v>0.3880109786987305</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6050936579704285</v>
+        <v>0.4425290822982788</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -16816,7 +16816,7 @@
         <v>0.3915109634399414</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8931437730789185</v>
+        <v>0.4676487445831299</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -16884,7 +16884,7 @@
         <v>0.9688770771026611</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5598355531692505</v>
+        <v>0.3609644174575806</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -16952,7 +16952,7 @@
         <v>0.8873858451843262</v>
       </c>
       <c r="V243" t="n">
-        <v>0.8761950731277466</v>
+        <v>0.5692344903945923</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -17020,7 +17020,7 @@
         <v>0.8699460029602051</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4994728863239288</v>
+        <v>0.6980321407318115</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -17088,7 +17088,7 @@
         <v>0.8767621517181396</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4580619633197784</v>
+        <v>0.4034273028373718</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -17156,7 +17156,7 @@
         <v>0.924044132232666</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4859932661056519</v>
+        <v>0.6047618389129639</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -17224,7 +17224,7 @@
         <v>0.8731060028076172</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4899163842201233</v>
+        <v>0.4228395819664001</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -17292,7 +17292,7 @@
         <v>0.8666858673095703</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3634779155254364</v>
+        <v>0.5379091501235962</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -17360,7 +17360,7 @@
         <v>0.8703219890594482</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4062788486480713</v>
+        <v>0.64891517162323</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -17428,7 +17428,7 @@
         <v>0.9223520755767822</v>
       </c>
       <c r="V250" t="n">
-        <v>0.8965057134628296</v>
+        <v>0.6894387602806091</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -17496,7 +17496,7 @@
         <v>0.8985769748687744</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6759716272354126</v>
+        <v>0.6077646017074585</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -17564,7 +17564,7 @@
         <v>0.868959903717041</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3832937479019165</v>
+        <v>0.6980346441268921</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -17632,7 +17632,7 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3953673839569092</v>
+        <v>0.401404857635498</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -17700,7 +17700,7 @@
         <v>0.9238629341125488</v>
       </c>
       <c r="V254" t="n">
-        <v>0.3846078515052795</v>
+        <v>0.5580369234085083</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -17768,7 +17768,7 @@
         <v>0.8743441104888916</v>
       </c>
       <c r="V255" t="n">
-        <v>0.8585964441299438</v>
+        <v>0.477519690990448</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -17836,7 +17836,7 @@
         <v>0.8645691871643066</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4960631132125854</v>
+        <v>0.4203795194625854</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -17904,7 +17904,7 @@
         <v>0.872567892074585</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4973828494548798</v>
+        <v>0.6077430248260498</v>
       </c>
     </row>
     <row r="258" spans="1:22">
@@ -17972,7 +17972,7 @@
         <v>0.9221258163452148</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4976572394371033</v>
+        <v>0.4550627470016479</v>
       </c>
     </row>
     <row r="259" spans="1:22">
@@ -18040,7 +18040,7 @@
         <v>0.8719618320465088</v>
       </c>
       <c r="V259" t="n">
-        <v>1.046741366386414</v>
+        <v>0.5854825973510742</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -18108,7 +18108,7 @@
         <v>0.8595550060272217</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4854188859462738</v>
+        <v>0.4795900583267212</v>
       </c>
     </row>
     <row r="261" spans="1:22">
@@ -18176,7 +18176,7 @@
         <v>0.8714239597320557</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4124782681465149</v>
+        <v>0.3609108924865723</v>
       </c>
     </row>
     <row r="262" spans="1:22">
@@ -18244,7 +18244,7 @@
         <v>0.5803899765014648</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3831411302089691</v>
+        <v>0.8843103051185608</v>
       </c>
     </row>
     <row r="263" spans="1:22">
@@ -18312,7 +18312,7 @@
         <v>0.5359330177307129</v>
       </c>
       <c r="V263" t="n">
-        <v>0.395297646522522</v>
+        <v>0.4552754163742065</v>
       </c>
     </row>
     <row r="264" spans="1:22">
@@ -18380,7 +18380,7 @@
         <v>0.5241751670837402</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4655221700668335</v>
+        <v>0.7097801566123962</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -18448,7 +18448,7 @@
         <v>0.5201199054718018</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5570814609527588</v>
+        <v>0.3859796524047852</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -18516,7 +18516,7 @@
         <v>0.5223581790924072</v>
       </c>
       <c r="V266" t="n">
-        <v>0.8833858370780945</v>
+        <v>0.5379610061645508</v>
       </c>
     </row>
     <row r="267" spans="1:22">
@@ -18584,7 +18584,7 @@
         <v>0.5622568130493164</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4839676022529602</v>
+        <v>0.5888757705688477</v>
       </c>
     </row>
     <row r="268" spans="1:22">
@@ -18652,7 +18652,7 @@
         <v>0.522320032119751</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8946353197097778</v>
+        <v>0.4036211967468262</v>
       </c>
     </row>
     <row r="269" spans="1:22">
@@ -18720,7 +18720,7 @@
         <v>0.5264480113983154</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4851827621459961</v>
+        <v>0.6086897850036621</v>
       </c>
     </row>
     <row r="270" spans="1:22">
@@ -18788,7 +18788,7 @@
         <v>0.5224809646606445</v>
       </c>
       <c r="V270" t="n">
-        <v>0.8482918739318848</v>
+        <v>0.5887453556060791</v>
       </c>
     </row>
     <row r="271" spans="1:22">
@@ -18856,7 +18856,7 @@
         <v>0.5219118595123291</v>
       </c>
       <c r="V271" t="n">
-        <v>0.8779928684234619</v>
+        <v>0.6896145939826965</v>
       </c>
     </row>
     <row r="272" spans="1:22">
@@ -18924,7 +18924,7 @@
         <v>0.5325601100921631</v>
       </c>
       <c r="V272" t="n">
-        <v>0.8823837041854858</v>
+        <v>0.4841680526733398</v>
       </c>
     </row>
     <row r="273" spans="1:22">
@@ -18992,7 +18992,7 @@
         <v>0.5309820175170898</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3942035138607025</v>
+        <v>0.5379790663719177</v>
       </c>
     </row>
     <row r="274" spans="1:22">
@@ -19060,7 +19060,7 @@
         <v>0.5350761413574219</v>
       </c>
       <c r="V274" t="n">
-        <v>0.882643461227417</v>
+        <v>0.3609535694122314</v>
       </c>
     </row>
     <row r="275" spans="1:22">
@@ -19128,7 +19128,7 @@
         <v>0.5228230953216553</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4853772819042206</v>
+        <v>0.3799396157264709</v>
       </c>
     </row>
     <row r="276" spans="1:22">
@@ -19196,7 +19196,7 @@
         <v>0.5218360424041748</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3983134925365448</v>
+        <v>0.4851488471031189</v>
       </c>
     </row>
     <row r="277" spans="1:22">
@@ -19264,7 +19264,7 @@
         <v>0.5197210311889648</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5548863410949707</v>
+        <v>0.5379217863082886</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -19332,7 +19332,7 @@
         <v>0.5819978713989258</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8661915063858032</v>
+        <v>0.587807834148407</v>
       </c>
     </row>
     <row r="279" spans="1:22">
@@ -19400,7 +19400,7 @@
         <v>0.52565598487854</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3871996700763702</v>
+        <v>0.8844614028930664</v>
       </c>
     </row>
     <row r="280" spans="1:22">
@@ -19468,7 +19468,7 @@
         <v>0.5217568874359131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.9148746728897095</v>
+        <v>0.4228060841560364</v>
       </c>
     </row>
     <row r="281" spans="1:22">
@@ -19536,7 +19536,7 @@
         <v>0.5200741291046143</v>
       </c>
       <c r="V281" t="n">
-        <v>0.8627592921257019</v>
+        <v>0.5379660129547119</v>
       </c>
     </row>
     <row r="282" spans="1:22">
@@ -19604,7 +19604,7 @@
         <v>0.3997402191162109</v>
       </c>
       <c r="V282" t="n">
-        <v>1.137103915214539</v>
+        <v>0.6556221842765808</v>
       </c>
     </row>
     <row r="283" spans="1:22">
@@ -19672,7 +19672,7 @@
         <v>0.3985359668731689</v>
       </c>
       <c r="V283" t="n">
-        <v>0.9449999332427979</v>
+        <v>0.5659052133560181</v>
       </c>
     </row>
     <row r="284" spans="1:22">
@@ -19740,7 +19740,7 @@
         <v>0.3998808860778809</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4654989242553711</v>
+        <v>0.4802520871162415</v>
       </c>
     </row>
     <row r="285" spans="1:22">
@@ -19808,7 +19808,7 @@
         <v>0.3987290859222412</v>
       </c>
       <c r="V285" t="n">
-        <v>0.9477196931838989</v>
+        <v>0.6490634083747864</v>
       </c>
     </row>
     <row r="286" spans="1:22">
@@ -19876,7 +19876,7 @@
         <v>0.3982019424438477</v>
       </c>
       <c r="V286" t="n">
-        <v>0.888516902923584</v>
+        <v>0.689429759979248</v>
       </c>
     </row>
     <row r="287" spans="1:22">
@@ -19944,7 +19944,7 @@
         <v>0.3971350193023682</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4614198803901672</v>
+        <v>0.5378856658935547</v>
       </c>
     </row>
     <row r="288" spans="1:22">
@@ -20012,7 +20012,7 @@
         <v>0.396536111831665</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8685799837112427</v>
+        <v>0.8845577836036682</v>
       </c>
     </row>
     <row r="289" spans="1:22">
@@ -20080,7 +20080,7 @@
         <v>0.4056761264801025</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8489970564842224</v>
+        <v>0.4224058389663696</v>
       </c>
     </row>
     <row r="290" spans="1:22">
@@ -20148,7 +20148,7 @@
         <v>0.4446420669555664</v>
       </c>
       <c r="V290" t="n">
-        <v>0.8756237626075745</v>
+        <v>0.5881587862968445</v>
       </c>
     </row>
     <row r="291" spans="1:22">
@@ -20216,7 +20216,7 @@
         <v>0.3968877792358398</v>
       </c>
       <c r="V291" t="n">
-        <v>1.140489220619202</v>
+        <v>0.480705738067627</v>
       </c>
     </row>
     <row r="292" spans="1:22">
@@ -20284,7 +20284,7 @@
         <v>0.398813009262085</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4972843825817108</v>
+        <v>0.4224810004234314</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -20352,7 +20352,7 @@
         <v>0.397514820098877</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4606521129608154</v>
+        <v>0.703600287437439</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -20420,7 +20420,7 @@
         <v>0.3943510055541992</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4173947274684906</v>
+        <v>0.5378709435462952</v>
       </c>
     </row>
     <row r="295" spans="1:22">
@@ -20488,7 +20488,7 @@
         <v>0.3956589698791504</v>
       </c>
       <c r="V295" t="n">
-        <v>0.8465163111686707</v>
+        <v>0.4225040078163147</v>
       </c>
     </row>
     <row r="296" spans="1:22">
@@ -20556,7 +20556,7 @@
         <v>0.448112964630127</v>
       </c>
       <c r="V296" t="n">
-        <v>0.3726454973220825</v>
+        <v>0.4408711791038513</v>
       </c>
     </row>
     <row r="297" spans="1:22">
@@ -20624,7 +20624,7 @@
         <v>0.405472993850708</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4822670221328735</v>
+        <v>0.3785778284072876</v>
       </c>
     </row>
     <row r="298" spans="1:22">
@@ -20692,7 +20692,7 @@
         <v>0.3981130123138428</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4878401160240173</v>
+        <v>0.4784874320030212</v>
       </c>
     </row>
     <row r="299" spans="1:22">
@@ -20760,7 +20760,7 @@
         <v>0.3922698497772217</v>
       </c>
       <c r="V299" t="n">
-        <v>0.8758226037025452</v>
+        <v>0.4229405522346497</v>
       </c>
     </row>
     <row r="300" spans="1:22">
@@ -20828,7 +20828,7 @@
         <v>0.3984370231628418</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3828264176845551</v>
+        <v>0.5904473066329956</v>
       </c>
     </row>
     <row r="301" spans="1:22">
@@ -20896,7 +20896,7 @@
         <v>0.3982150554656982</v>
       </c>
       <c r="V301" t="n">
-        <v>0.8831307888031006</v>
+        <v>0.590424120426178</v>
       </c>
     </row>
     <row r="302" spans="1:22">

--- a/data/scheduling_DNN/predict/result24.xlsx
+++ b/data/scheduling_DNN/predict/result24.xlsx
@@ -564,7 +564,7 @@
         <v>0.9158320426940918</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4914345741271973</v>
+        <v>0.6535108089447021</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -632,7 +632,7 @@
         <v>1.083549022674561</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4802040457725525</v>
+        <v>0.405481219291687</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -700,7 +700,7 @@
         <v>0.9028561115264893</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4792518615722656</v>
+        <v>0.4897371828556061</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -768,7 +768,7 @@
         <v>0.9068429470062256</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4223143458366394</v>
+        <v>0.7081183791160583</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -836,7 +836,7 @@
         <v>0.8921949863433838</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4226258993148804</v>
+        <v>0.4637985229492188</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -904,7 +904,7 @@
         <v>0.9592020511627197</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5380850434303284</v>
+        <v>0.5826015472412109</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -972,7 +972,7 @@
         <v>0.9031510353088379</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4226645827293396</v>
+        <v>0.4614459872245789</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1040,7 +1040,7 @@
         <v>0.8834061622619629</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4411333203315735</v>
+        <v>0.5045692920684814</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1108,7 +1108,7 @@
         <v>0.869596004486084</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5379722714424133</v>
+        <v>0.8004262447357178</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1176,7 +1176,7 @@
         <v>0.8622729778289795</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6051912903785706</v>
+        <v>0.9755959510803223</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1244,7 +1244,7 @@
         <v>0.8498358726501465</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4923393726348877</v>
+        <v>0.4176277816295624</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1312,7 +1312,7 @@
         <v>0.8628380298614502</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4712569713592529</v>
+        <v>0.7035881876945496</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1380,7 +1380,7 @@
         <v>0.8531289100646973</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3609372973442078</v>
+        <v>0.3507571518421173</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1448,7 +1448,7 @@
         <v>0.8970530033111572</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3671593070030212</v>
+        <v>0.9751924276351929</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1516,7 +1516,7 @@
         <v>0.8678269386291504</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3647720217704773</v>
+        <v>0.5245612859725952</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1584,7 +1584,7 @@
         <v>0.8710651397705078</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5378978252410889</v>
+        <v>0.4175451099872589</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1652,7 +1652,7 @@
         <v>0.8639440536499023</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5612205266952515</v>
+        <v>0.3720992505550385</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1720,7 +1720,7 @@
         <v>0.8588051795959473</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5879279971122742</v>
+        <v>0.8000637888908386</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1788,7 +1788,7 @@
         <v>0.8584301471710205</v>
       </c>
       <c r="V20" t="n">
-        <v>0.378571629524231</v>
+        <v>0.5762090086936951</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1856,7 +1856,7 @@
         <v>0.8625400066375732</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4833751916885376</v>
+        <v>0.4176262617111206</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1924,7 +1924,7 @@
         <v>0.5215189456939697</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3648877739906311</v>
+        <v>0.8031194806098938</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1992,7 +1992,7 @@
         <v>0.5474259853363037</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6086816191673279</v>
+        <v>0.3507419228553772</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2060,7 +2060,7 @@
         <v>0.5324690341949463</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4211356043815613</v>
+        <v>0.6521576642990112</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2128,7 +2128,7 @@
         <v>0.5443720817565918</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5905375480651855</v>
+        <v>0.4634914994239807</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2196,7 +2196,7 @@
         <v>0.5174431800842285</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5858365893363953</v>
+        <v>0.9752137064933777</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2264,7 +2264,7 @@
         <v>0.5199580192565918</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4384209513664246</v>
+        <v>0.5258046388626099</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2332,7 +2332,7 @@
         <v>0.5705280303955078</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8805574774742126</v>
+        <v>0.6532728672027588</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2400,7 +2400,7 @@
         <v>0.5360360145568848</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5874905586242676</v>
+        <v>0.6533396244049072</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2468,7 +2468,7 @@
         <v>0.5123929977416992</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6566483378410339</v>
+        <v>0.3507649004459381</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2536,7 +2536,7 @@
         <v>0.5140321254730225</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4384316802024841</v>
+        <v>0.8045668601989746</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2604,7 +2604,7 @@
         <v>0.5264840126037598</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8821443915367126</v>
+        <v>0.3794727325439453</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2672,7 +2672,7 @@
         <v>0.5515899658203125</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6240726113319397</v>
+        <v>0.5756250023841858</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2740,7 +2740,7 @@
         <v>0.5347549915313721</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6516602039337158</v>
+        <v>0.4909484088420868</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2808,7 +2808,7 @@
         <v>0.5150079727172852</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4844552874565125</v>
+        <v>0.6537992358207703</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2876,7 +2876,7 @@
         <v>0.513552188873291</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4554443955421448</v>
+        <v>0.4903136193752289</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2944,7 +2944,7 @@
         <v>0.5116209983825684</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3609561920166016</v>
+        <v>0.4176654517650604</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3012,7 +3012,7 @@
         <v>0.5144779682159424</v>
       </c>
       <c r="V38" t="n">
-        <v>0.689443826675415</v>
+        <v>0.802417516708374</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3080,7 +3080,7 @@
         <v>0.5155918598175049</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4810751676559448</v>
+        <v>0.4638172388076782</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3148,7 +3148,7 @@
         <v>0.5169968605041504</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3786981105804443</v>
+        <v>0.3507513999938965</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3216,7 +3216,7 @@
         <v>0.5230939388275146</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3877466320991516</v>
+        <v>0.490907609462738</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3284,7 +3284,7 @@
         <v>0.3878488540649414</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4837238192558289</v>
+        <v>0.6538190245628357</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3352,7 +3352,7 @@
         <v>0.4163708686828613</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4554891586303711</v>
+        <v>0.6992238759994507</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3420,7 +3420,7 @@
         <v>0.3840310573577881</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4223841428756714</v>
+        <v>0.5763152837753296</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3488,7 +3488,7 @@
         <v>0.4026141166687012</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6095840334892273</v>
+        <v>0.708076536655426</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3556,7 +3556,7 @@
         <v>0.3885538578033447</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6896112561225891</v>
+        <v>0.838257908821106</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3624,7 +3624,7 @@
         <v>0.3955121040344238</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4223563671112061</v>
+        <v>0.3720111846923828</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3692,7 +3692,7 @@
         <v>0.390099048614502</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8878307342529297</v>
+        <v>0.4908333420753479</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3760,7 +3760,7 @@
         <v>0.3808498382568359</v>
       </c>
       <c r="V49" t="n">
-        <v>0.7900906205177307</v>
+        <v>0.7082430720329285</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3828,7 +3828,7 @@
         <v>0.3873260021209717</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4550826549530029</v>
+        <v>0.9755766987800598</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3896,7 +3896,7 @@
         <v>0.3878731727600098</v>
       </c>
       <c r="V51" t="n">
-        <v>0.7839659452438354</v>
+        <v>0.6525439023971558</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3964,7 +3964,7 @@
         <v>0.4749269485473633</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7939709424972534</v>
+        <v>0.3786694407463074</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4032,7 +4032,7 @@
         <v>0.3870069980621338</v>
       </c>
       <c r="V53" t="n">
-        <v>0.7898924350738525</v>
+        <v>0.4176395535469055</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4100,7 +4100,7 @@
         <v>0.3869731426239014</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5912466049194336</v>
+        <v>0.4174875020980835</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4168,7 +4168,7 @@
         <v>0.3853850364685059</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6179987788200378</v>
+        <v>0.503772497177124</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4236,7 +4236,7 @@
         <v>0.3874011039733887</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4888110160827637</v>
+        <v>0.6507607698440552</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4304,7 +4304,7 @@
         <v>0.3864510059356689</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4795461297035217</v>
+        <v>0.4614622294902802</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4372,7 +4372,7 @@
         <v>0.4420790672302246</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5606808662414551</v>
+        <v>0.6531109213829041</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4440,7 +4440,7 @@
         <v>0.3854479789733887</v>
       </c>
       <c r="V59" t="n">
-        <v>0.7040767669677734</v>
+        <v>0.4638742208480835</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4508,7 +4508,7 @@
         <v>0.3869140148162842</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5379284620285034</v>
+        <v>0.9755281805992126</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4576,7 +4576,7 @@
         <v>0.3865559101104736</v>
       </c>
       <c r="V61" t="n">
-        <v>0.7100529074668884</v>
+        <v>0.505433976650238</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4644,7 +4644,7 @@
         <v>0.8937709331512451</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5611301064491272</v>
+        <v>0.3887981772422791</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4712,7 +4712,7 @@
         <v>0.8729770183563232</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5552331805229187</v>
+        <v>0.3783542811870575</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4780,7 +4780,7 @@
         <v>0.8688240051269531</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6046422719955444</v>
+        <v>0.653571605682373</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4848,7 +4848,7 @@
         <v>0.880122184753418</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4408747553825378</v>
+        <v>0.6539149880409241</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4916,7 +4916,7 @@
         <v>0.923098087310791</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4398151040077209</v>
+        <v>0.4906497597694397</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4984,7 +4984,7 @@
         <v>0.8765921592712402</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6094298958778381</v>
+        <v>0.3507497906684875</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5052,7 +5052,7 @@
         <v>0.886073112487793</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6587436199188232</v>
+        <v>0.371780127286911</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5120,7 +5120,7 @@
         <v>0.8742110729217529</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4854723215103149</v>
+        <v>0.8004674911499023</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5188,7 +5188,7 @@
         <v>0.9114389419555664</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5562270879745483</v>
+        <v>0.8022716045379639</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5256,7 +5256,7 @@
         <v>0.863980770111084</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4801205992698669</v>
+        <v>0.4907905161380768</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5324,7 +5324,7 @@
         <v>0.8579771518707275</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6281869411468506</v>
+        <v>0.5263315439224243</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5392,7 +5392,7 @@
         <v>0.8670721054077148</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4844722747802734</v>
+        <v>0.6538257002830505</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5460,7 +5460,7 @@
         <v>0.9190080165863037</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6181319952011108</v>
+        <v>0.975181519985199</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5528,7 +5528,7 @@
         <v>0.8657910823822021</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4850061535835266</v>
+        <v>0.800457239151001</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5596,7 +5596,7 @@
         <v>0.8570520877838135</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4765533804893494</v>
+        <v>0.5054473876953125</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.8620641231536865</v>
       </c>
       <c r="V77" t="n">
-        <v>0.7964216470718384</v>
+        <v>0.8027225732803345</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>0.9132330417633057</v>
       </c>
       <c r="V78" t="n">
-        <v>0.7902021408081055</v>
+        <v>0.6863111853599548</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5800,7 +5800,7 @@
         <v>0.8653810024261475</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4796501398086548</v>
+        <v>0.3470315337181091</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5868,7 +5868,7 @@
         <v>0.8517961502075195</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4849292635917664</v>
+        <v>0.97564297914505</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5936,7 +5936,7 @@
         <v>0.8566889762878418</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5380772948265076</v>
+        <v>0.5245877504348755</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6004,7 +6004,7 @@
         <v>0.6077280044555664</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6566144227981567</v>
+        <v>0.4176313579082489</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6072,7 +6072,7 @@
         <v>0.5324530601501465</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4211761355400085</v>
+        <v>0.6535240411758423</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6140,7 +6140,7 @@
         <v>0.5195989608764648</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4226563572883606</v>
+        <v>0.8039833903312683</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6208,7 +6208,7 @@
         <v>0.5172631740570068</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6485797166824341</v>
+        <v>0.6926920413970947</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6276,7 +6276,7 @@
         <v>0.5184378623962402</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4427711367607117</v>
+        <v>0.35074183344841</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.5135190486907959</v>
       </c>
       <c r="V87" t="n">
-        <v>0.7033109068870544</v>
+        <v>0.5042588710784912</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6412,7 +6412,7 @@
         <v>0.5161938667297363</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5379763245582581</v>
+        <v>0.5051002502441406</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6480,7 +6480,7 @@
         <v>0.51385498046875</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5887073874473572</v>
+        <v>0.6927068829536438</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6548,7 +6548,7 @@
         <v>0.52976393699646</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4757353663444519</v>
+        <v>0.490329772233963</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6616,7 +6616,7 @@
         <v>0.5083980560302734</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4005610942840576</v>
+        <v>0.7080770134925842</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6684,7 +6684,7 @@
         <v>0.5183050632476807</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3609153628349304</v>
+        <v>0.6992233991622925</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6752,7 +6752,7 @@
         <v>0.5741360187530518</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4721607565879822</v>
+        <v>0.5930236577987671</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6820,7 +6820,7 @@
         <v>0.5157358646392822</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4870217442512512</v>
+        <v>0.3470365405082703</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6888,7 +6888,7 @@
         <v>0.5177850723266602</v>
       </c>
       <c r="V95" t="n">
-        <v>0.7839377522468567</v>
+        <v>0.5248926877975464</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6956,7 +6956,7 @@
         <v>0.5170001983642578</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6282039284706116</v>
+        <v>0.3778701424598694</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7024,7 +7024,7 @@
         <v>0.5156979560852051</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6487356424331665</v>
+        <v>0.417653352022171</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7092,7 +7092,7 @@
         <v>0.5150308609008789</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3866152763366699</v>
+        <v>0.5050196051597595</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7160,7 +7160,7 @@
         <v>0.5117359161376953</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6077598333358765</v>
+        <v>0.3719204664230347</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7228,7 +7228,7 @@
         <v>0.5169169902801514</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3611143827438354</v>
+        <v>0.4175667762756348</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7296,7 +7296,7 @@
         <v>0.5151300430297852</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4399700164794922</v>
+        <v>0.417632520198822</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7364,7 +7364,7 @@
         <v>0.4011440277099609</v>
       </c>
       <c r="V102" t="n">
-        <v>0.7102096080780029</v>
+        <v>0.590633749961853</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7432,7 +7432,7 @@
         <v>0.3933029174804688</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4788762331008911</v>
+        <v>0.4611244201660156</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7500,7 +7500,7 @@
         <v>0.4623069763183594</v>
       </c>
       <c r="V104" t="n">
-        <v>0.8876227140426636</v>
+        <v>0.5262220501899719</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7568,7 +7568,7 @@
         <v>0.4016380310058594</v>
       </c>
       <c r="V105" t="n">
-        <v>0.8844561576843262</v>
+        <v>0.699232816696167</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7636,7 +7636,7 @@
         <v>0.3869550228118896</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5887113809585571</v>
+        <v>0.5243822336196899</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7704,7 +7704,7 @@
         <v>0.3876049518585205</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4770028591156006</v>
+        <v>0.5248144865036011</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7772,7 +7772,7 @@
         <v>0.3848268985748291</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6536902785301208</v>
+        <v>0.4904916286468506</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7840,7 +7840,7 @@
         <v>0.3837590217590332</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6074541807174683</v>
+        <v>0.5251706838607788</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7908,7 +7908,7 @@
         <v>0.3923969268798828</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3873438239097595</v>
+        <v>0.4634853303432465</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7976,7 +7976,7 @@
         <v>0.3905560970306396</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5881173610687256</v>
+        <v>0.5244113802909851</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8044,7 +8044,7 @@
         <v>0.4197750091552734</v>
       </c>
       <c r="V112" t="n">
-        <v>0.7040725350379944</v>
+        <v>0.4634905457496643</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8112,7 +8112,7 @@
         <v>0.3878428936004639</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6075444221496582</v>
+        <v>0.5760191679000854</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8180,7 +8180,7 @@
         <v>0.3895189762115479</v>
       </c>
       <c r="V114" t="n">
-        <v>0.48039710521698</v>
+        <v>0.5761433839797974</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8248,7 +8248,7 @@
         <v>0.3900959491729736</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6075578927993774</v>
+        <v>0.524641752243042</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8316,7 +8316,7 @@
         <v>0.3928630352020264</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6980237364768982</v>
+        <v>0.4898227453231812</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8384,7 +8384,7 @@
         <v>0.3898940086364746</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3610076904296875</v>
+        <v>0.8339731693267822</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8452,7 +8452,7 @@
         <v>0.4062461853027344</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4868853092193604</v>
+        <v>0.9760575294494629</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8520,7 +8520,7 @@
         <v>0.3928899765014648</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4054241180419922</v>
+        <v>0.4638242721557617</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8588,7 +8588,7 @@
         <v>0.4058489799499512</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5379003286361694</v>
+        <v>0.6862813830375671</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8656,7 +8656,7 @@
         <v>0.3893370628356934</v>
       </c>
       <c r="V121" t="n">
-        <v>0.438488781452179</v>
+        <v>0.4175422191619873</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8724,7 +8724,7 @@
         <v>0.9344758987426758</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3871904611587524</v>
+        <v>0.5908601880073547</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8792,7 +8792,7 @@
         <v>0.923220157623291</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6106979846954346</v>
+        <v>0.975210964679718</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8860,7 +8860,7 @@
         <v>0.886603832244873</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5890090465545654</v>
+        <v>0.4904178380966187</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8928,7 +8928,7 @@
         <v>0.8658430576324463</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4718003869056702</v>
+        <v>0.6533820629119873</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8996,7 +8996,7 @@
         <v>0.9301521778106689</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6181443929672241</v>
+        <v>0.4907757639884949</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>0.8670220375061035</v>
       </c>
       <c r="V127" t="n">
-        <v>0.7101702690124512</v>
+        <v>0.417652815580368</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9132,7 +9132,7 @@
         <v>0.8588049411773682</v>
       </c>
       <c r="V128" t="n">
-        <v>0.366996169090271</v>
+        <v>0.4781287908554077</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9200,7 +9200,7 @@
         <v>0.8632090091705322</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6539028882980347</v>
+        <v>0.6543192863464355</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9268,7 +9268,7 @@
         <v>0.9286599159240723</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3610337376594543</v>
+        <v>0.8296502828598022</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9336,7 +9336,7 @@
         <v>0.8627760410308838</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6984093189239502</v>
+        <v>0.6531110405921936</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9404,7 +9404,7 @@
         <v>0.8678469657897949</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8854296207427979</v>
+        <v>0.6516773104667664</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9472,7 +9472,7 @@
         <v>0.8895740509033203</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6077224016189575</v>
+        <v>0.4638285040855408</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9540,7 +9540,7 @@
         <v>0.9131011962890625</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6490487456321716</v>
+        <v>0.9757341742515564</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9608,7 +9608,7 @@
         <v>0.8853030204772949</v>
       </c>
       <c r="V135" t="n">
-        <v>0.8821812868118286</v>
+        <v>0.6529941558837891</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9676,7 +9676,7 @@
         <v>0.8666760921478271</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8856419324874878</v>
+        <v>0.4615276753902435</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9744,7 +9744,7 @@
         <v>0.8663780689239502</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5378825664520264</v>
+        <v>0.3507598340511322</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9812,7 +9812,7 @@
         <v>0.9638628959655762</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5380626916885376</v>
+        <v>0.4904197454452515</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -9880,7 +9880,7 @@
         <v>0.8622651100158691</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6464481353759766</v>
+        <v>0.9755939245223999</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -9948,7 +9948,7 @@
         <v>0.8692471981048584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8805928230285645</v>
+        <v>0.4176522493362427</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10016,7 +10016,7 @@
         <v>0.8623571395874023</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5853784084320068</v>
+        <v>0.372467577457428</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10084,7 +10084,7 @@
         <v>0.6044659614562988</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4035907387733459</v>
+        <v>0.4907240867614746</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10152,7 +10152,7 @@
         <v>0.5224449634552002</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6976108551025391</v>
+        <v>0.4907099008560181</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10220,7 +10220,7 @@
         <v>0.5226070880889893</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4068009853363037</v>
+        <v>0.8046363592147827</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10288,7 +10288,7 @@
         <v>0.5178959369659424</v>
       </c>
       <c r="V145" t="n">
-        <v>0.7899690866470337</v>
+        <v>0.5052164793014526</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10356,7 +10356,7 @@
         <v>0.5190908908843994</v>
       </c>
       <c r="V146" t="n">
-        <v>0.3609158396720886</v>
+        <v>0.6992213726043701</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10424,7 +10424,7 @@
         <v>0.5860030651092529</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4223513603210449</v>
+        <v>0.6990503668785095</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10492,7 +10492,7 @@
         <v>0.5164039134979248</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6980326771736145</v>
+        <v>0.5821697115898132</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10560,7 +10560,7 @@
         <v>0.5191459655761719</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5172411203384399</v>
+        <v>0.8341045379638672</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10628,7 +10628,7 @@
         <v>0.5155618190765381</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3609938621520996</v>
+        <v>0.9756271839141846</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10696,7 +10696,7 @@
         <v>0.5148890018463135</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4223676919937134</v>
+        <v>0.5873388648033142</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10764,7 +10764,7 @@
         <v>0.5184359550476074</v>
       </c>
       <c r="V152" t="n">
-        <v>0.7962723970413208</v>
+        <v>0.8337250947952271</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10832,7 +10832,7 @@
         <v>0.5217199325561523</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5378905534744263</v>
+        <v>0.5051230192184448</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -10900,7 +10900,7 @@
         <v>0.5131559371948242</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6076244711875916</v>
+        <v>0.5042976140975952</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10968,7 +10968,7 @@
         <v>0.518787145614624</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4030694961547852</v>
+        <v>0.3789054155349731</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11036,7 +11036,7 @@
         <v>0.5176479816436768</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3609596490859985</v>
+        <v>0.4638583362102509</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11104,7 +11104,7 @@
         <v>0.5177152156829834</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5915652513504028</v>
+        <v>0.5870922207832336</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11172,7 +11172,7 @@
         <v>0.5725910663604736</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5570175051689148</v>
+        <v>0.4634823501110077</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11240,7 +11240,7 @@
         <v>0.5187699794769287</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4902856349945068</v>
+        <v>0.3507855832576752</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11308,7 +11308,7 @@
         <v>0.5169379711151123</v>
       </c>
       <c r="V160" t="n">
-        <v>0.8822028636932373</v>
+        <v>0.7080433368682861</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11376,7 +11376,7 @@
         <v>0.5167171955108643</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4223188161849976</v>
+        <v>0.4692052006721497</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11444,7 +11444,7 @@
         <v>0.3881561756134033</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4038267731666565</v>
+        <v>0.5058352947235107</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11512,7 +11512,7 @@
         <v>0.3847639560699463</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5161032676696777</v>
+        <v>0.5946947336196899</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11580,7 +11580,7 @@
         <v>0.4290227890014648</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6058166027069092</v>
+        <v>0.6926973462104797</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11648,7 +11648,7 @@
         <v>0.3951821327209473</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5379694104194641</v>
+        <v>0.5245808959007263</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11716,7 +11716,7 @@
         <v>0.3900890350341797</v>
       </c>
       <c r="V166" t="n">
-        <v>0.7958468198776245</v>
+        <v>0.3507492542266846</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11784,7 +11784,7 @@
         <v>0.3875689506530762</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4222974181175232</v>
+        <v>0.417630136013031</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -11852,7 +11852,7 @@
         <v>0.3894119262695312</v>
       </c>
       <c r="V168" t="n">
-        <v>0.438521683216095</v>
+        <v>0.5046958923339844</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -11920,7 +11920,7 @@
         <v>0.3889319896697998</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4719034433364868</v>
+        <v>0.3717378973960876</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11988,7 +11988,7 @@
         <v>0.4485461711883545</v>
       </c>
       <c r="V170" t="n">
-        <v>0.7033395767211914</v>
+        <v>0.5826250314712524</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12056,7 +12056,7 @@
         <v>0.3905320167541504</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6077727079391479</v>
+        <v>0.6538669466972351</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12124,7 +12124,7 @@
         <v>0.3975460529327393</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6954771280288696</v>
+        <v>0.7035837173461914</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12192,7 +12192,7 @@
         <v>0.3932430744171143</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3611395955085754</v>
+        <v>0.5825173258781433</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12260,7 +12260,7 @@
         <v>0.3954341411590576</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6981954574584961</v>
+        <v>0.6535565853118896</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -12328,7 +12328,7 @@
         <v>0.3906009197235107</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5379487872123718</v>
+        <v>0.8371423482894897</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -12396,7 +12396,7 @@
         <v>0.402489185333252</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4843006730079651</v>
+        <v>0.5823945999145508</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.407020092010498</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4425503611564636</v>
+        <v>0.4908617734909058</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -12532,7 +12532,7 @@
         <v>0.4001131057739258</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6180075407028198</v>
+        <v>0.8015877604484558</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>0.3924248218536377</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3657307028770447</v>
+        <v>0.3720975518226624</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -12668,7 +12668,7 @@
         <v>0.3933250904083252</v>
       </c>
       <c r="V180" t="n">
-        <v>0.422416090965271</v>
+        <v>0.4615180790424347</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -12736,7 +12736,7 @@
         <v>0.4109649658203125</v>
       </c>
       <c r="V181" t="n">
-        <v>0.7011902928352356</v>
+        <v>0.3720027506351471</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>0.930757999420166</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4029312133789062</v>
+        <v>0.654336154460907</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -12872,7 +12872,7 @@
         <v>0.9007179737091064</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4214755892753601</v>
+        <v>0.5044592022895813</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -12940,7 +12940,7 @@
         <v>0.8538830280303955</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6865060329437256</v>
+        <v>0.3721317946910858</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13008,7 +13008,7 @@
         <v>0.8625741004943848</v>
       </c>
       <c r="V185" t="n">
-        <v>0.455345094203949</v>
+        <v>0.5050956606864929</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13076,7 +13076,7 @@
         <v>0.9210469722747803</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4226717352867126</v>
+        <v>0.3782425820827484</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13144,7 +13144,7 @@
         <v>0.8796489238739014</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6563281416893005</v>
+        <v>0.576347291469574</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13212,7 +13212,7 @@
         <v>0.8608701229095459</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8004910945892334</v>
+        <v>0.3471212387084961</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13280,7 +13280,7 @@
         <v>0.8589789867401123</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5662949681282043</v>
+        <v>0.5762016177177429</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13348,7 +13348,7 @@
         <v>0.9136989116668701</v>
       </c>
       <c r="V190" t="n">
-        <v>0.440751314163208</v>
+        <v>0.5030666589736938</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -13416,7 +13416,7 @@
         <v>0.908707857131958</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5618018507957458</v>
+        <v>0.3518496155738831</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -13484,7 +13484,7 @@
         <v>0.8630239963531494</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4211025238037109</v>
+        <v>0.3783480226993561</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -13552,7 +13552,7 @@
         <v>0.854511022567749</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5378779172897339</v>
+        <v>0.4903903901576996</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -13620,7 +13620,7 @@
         <v>0.9141519069671631</v>
       </c>
       <c r="V194" t="n">
-        <v>0.8804707527160645</v>
+        <v>0.802345335483551</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -13688,7 +13688,7 @@
         <v>0.863649845123291</v>
       </c>
       <c r="V195" t="n">
-        <v>0.607180655002594</v>
+        <v>0.3785795569419861</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -13756,7 +13756,7 @@
         <v>0.8595011234283447</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4805735945701599</v>
+        <v>0.5908746719360352</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -13824,7 +13824,7 @@
         <v>0.8564651012420654</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5903171300888062</v>
+        <v>0.6992434859275818</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -13892,7 +13892,7 @@
         <v>0.91792893409729</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3671503067016602</v>
+        <v>0.4896917641162872</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -13960,7 +13960,7 @@
         <v>0.8616671562194824</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4227635264396667</v>
+        <v>0.5048985481262207</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14028,7 +14028,7 @@
         <v>0.8541388511657715</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6080566644668579</v>
+        <v>0.3783526420593262</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14096,7 +14096,7 @@
         <v>0.8800570964813232</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4400861263275146</v>
+        <v>0.8022168874740601</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14164,7 +14164,7 @@
         <v>0.5678768157958984</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4553601741790771</v>
+        <v>0.3507806360721588</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14232,7 +14232,7 @@
         <v>0.514833927154541</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5378905534744263</v>
+        <v>0.6533793210983276</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14300,7 +14300,7 @@
         <v>0.5260651111602783</v>
       </c>
       <c r="V204" t="n">
-        <v>0.480116069316864</v>
+        <v>0.4615108966827393</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14368,7 +14368,7 @@
         <v>0.517125129699707</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6095789670944214</v>
+        <v>0.6547797918319702</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -14436,7 +14436,7 @@
         <v>0.5141780376434326</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3665919899940491</v>
+        <v>0.3895606100559235</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -14504,7 +14504,7 @@
         <v>0.5359299182891846</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4806921482086182</v>
+        <v>0.4903536438941956</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -14572,7 +14572,7 @@
         <v>0.5157561302185059</v>
       </c>
       <c r="V208" t="n">
-        <v>0.480150043964386</v>
+        <v>0.5247950553894043</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -14640,7 +14640,7 @@
         <v>0.5315990447998047</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4207318425178528</v>
+        <v>0.8296811580657959</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -14708,7 +14708,7 @@
         <v>0.51698899269104</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6840715408325195</v>
+        <v>0.5870838761329651</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -14776,7 +14776,7 @@
         <v>0.5223329067230225</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4834600687026978</v>
+        <v>0.9757455587387085</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -14844,7 +14844,7 @@
         <v>0.520453929901123</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3867952823638916</v>
+        <v>0.5249706506729126</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -14912,7 +14912,7 @@
         <v>0.5225491523742676</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4033211469650269</v>
+        <v>0.8004398941993713</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -14980,7 +14980,7 @@
         <v>0.5179979801177979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3867775201797485</v>
+        <v>0.8012609481811523</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -15048,7 +15048,7 @@
         <v>0.5212459564208984</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4768378734588623</v>
+        <v>0.5406032800674438</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -15116,7 +15116,7 @@
         <v>0.5182290077209473</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4227662682533264</v>
+        <v>0.3507673740386963</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -15184,7 +15184,7 @@
         <v>0.5201139450073242</v>
       </c>
       <c r="V217" t="n">
-        <v>0.7030863761901855</v>
+        <v>0.8414528369903564</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -15252,7 +15252,7 @@
         <v>0.5731589794158936</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5620260834693909</v>
+        <v>0.3507759571075439</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -15320,7 +15320,7 @@
         <v>0.5226938724517822</v>
       </c>
       <c r="V219" t="n">
-        <v>0.473851203918457</v>
+        <v>0.4176601767539978</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -15388,7 +15388,7 @@
         <v>0.5205881595611572</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3610464334487915</v>
+        <v>0.5762413144111633</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -15456,7 +15456,7 @@
         <v>0.5168888568878174</v>
       </c>
       <c r="V221" t="n">
-        <v>0.475893497467041</v>
+        <v>0.9760792851448059</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -15524,7 +15524,7 @@
         <v>0.3887159824371338</v>
       </c>
       <c r="V222" t="n">
-        <v>0.8822290897369385</v>
+        <v>0.652911365032196</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -15592,7 +15592,7 @@
         <v>0.3898229598999023</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5538752675056458</v>
+        <v>0.801636278629303</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -15660,7 +15660,7 @@
         <v>0.4194519519805908</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5379613637924194</v>
+        <v>0.5248074531555176</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -15728,7 +15728,7 @@
         <v>0.3898060321807861</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4212579131126404</v>
+        <v>0.3516814708709717</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -15796,7 +15796,7 @@
         <v>0.3921728134155273</v>
       </c>
       <c r="V226" t="n">
-        <v>0.7098118662834167</v>
+        <v>0.8020263910293579</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -15864,7 +15864,7 @@
         <v>0.3946051597595215</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3887149095535278</v>
+        <v>0.8047276735305786</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -15932,7 +15932,7 @@
         <v>0.3947889804840088</v>
       </c>
       <c r="V228" t="n">
-        <v>0.537911593914032</v>
+        <v>0.3507504463195801</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16000,7 +16000,7 @@
         <v>0.4008910655975342</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3868059515953064</v>
+        <v>0.4691958427429199</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16068,7 +16068,7 @@
         <v>0.4470059871673584</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8854069709777832</v>
+        <v>0.3515170216560364</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16136,7 +16136,7 @@
         <v>0.3917229175567627</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6980137825012207</v>
+        <v>0.8340836763381958</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16204,7 +16204,7 @@
         <v>0.395392894744873</v>
       </c>
       <c r="V232" t="n">
-        <v>0.7903261780738831</v>
+        <v>0.655465304851532</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -16272,7 +16272,7 @@
         <v>0.3932290077209473</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6980226039886475</v>
+        <v>0.4175129532814026</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -16340,7 +16340,7 @@
         <v>0.3940830230712891</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3610904812812805</v>
+        <v>0.8023541569709778</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -16408,7 +16408,7 @@
         <v>0.3967359066009521</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3666130304336548</v>
+        <v>0.8386415839195251</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -16476,7 +16476,7 @@
         <v>0.4329109191894531</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4890546202659607</v>
+        <v>0.9755794405937195</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -16544,7 +16544,7 @@
         <v>0.3919219970703125</v>
       </c>
       <c r="V237" t="n">
-        <v>0.591393768787384</v>
+        <v>0.6534236073493958</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -16612,7 +16612,7 @@
         <v>0.3912811279296875</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6571362614631653</v>
+        <v>0.4176275134086609</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -16680,7 +16680,7 @@
         <v>0.3863692283630371</v>
       </c>
       <c r="V239" t="n">
-        <v>0.36097651720047</v>
+        <v>0.4906106293201447</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -16748,7 +16748,7 @@
         <v>0.3880109786987305</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4425290822982788</v>
+        <v>0.5947228074073792</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -16816,7 +16816,7 @@
         <v>0.3915109634399414</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4676487445831299</v>
+        <v>0.3507537245750427</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -16884,7 +16884,7 @@
         <v>0.9688770771026611</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3609644174575806</v>
+        <v>0.5050980448722839</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -16952,7 +16952,7 @@
         <v>0.8873858451843262</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5692344903945923</v>
+        <v>0.653493344783783</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -17020,7 +17020,7 @@
         <v>0.8699460029602051</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6980321407318115</v>
+        <v>0.5251024961471558</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -17088,7 +17088,7 @@
         <v>0.8767621517181396</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4034273028373718</v>
+        <v>0.5045288801193237</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -17156,7 +17156,7 @@
         <v>0.924044132232666</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6047618389129639</v>
+        <v>0.9755698442459106</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -17224,7 +17224,7 @@
         <v>0.8731060028076172</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4228395819664001</v>
+        <v>0.8028735518455505</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -17292,7 +17292,7 @@
         <v>0.8666858673095703</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5379091501235962</v>
+        <v>0.3718892931938171</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -17360,7 +17360,7 @@
         <v>0.8703219890594482</v>
       </c>
       <c r="V249" t="n">
-        <v>0.64891517162323</v>
+        <v>0.5245010852813721</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -17428,7 +17428,7 @@
         <v>0.9223520755767822</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6894387602806091</v>
+        <v>0.4176599979400635</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -17496,7 +17496,7 @@
         <v>0.8985769748687744</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6077646017074585</v>
+        <v>0.5760207772254944</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -17564,7 +17564,7 @@
         <v>0.868959903717041</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6980346441268921</v>
+        <v>0.5762007236480713</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -17632,7 +17632,7 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V253" t="n">
-        <v>0.401404857635498</v>
+        <v>0.4176727831363678</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -17700,7 +17700,7 @@
         <v>0.9238629341125488</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5580369234085083</v>
+        <v>0.4176348447799683</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -17768,7 +17768,7 @@
         <v>0.8743441104888916</v>
       </c>
       <c r="V255" t="n">
-        <v>0.477519690990448</v>
+        <v>0.6543079614639282</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -17836,7 +17836,7 @@
         <v>0.8645691871643066</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4203795194625854</v>
+        <v>0.4176304936408997</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -17904,7 +17904,7 @@
         <v>0.872567892074585</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6077430248260498</v>
+        <v>0.5906542539596558</v>
       </c>
     </row>
     <row r="258" spans="1:22">
@@ -17972,7 +17972,7 @@
         <v>0.9221258163452148</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4550627470016479</v>
+        <v>0.6528818607330322</v>
       </c>
     </row>
     <row r="259" spans="1:22">
@@ -18040,7 +18040,7 @@
         <v>0.8719618320465088</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5854825973510742</v>
+        <v>0.5256670713424683</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -18108,7 +18108,7 @@
         <v>0.8595550060272217</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4795900583267212</v>
+        <v>0.4176340699195862</v>
       </c>
     </row>
     <row r="261" spans="1:22">
@@ -18176,7 +18176,7 @@
         <v>0.8714239597320557</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3609108924865723</v>
+        <v>0.6533357501029968</v>
       </c>
     </row>
     <row r="262" spans="1:22">
@@ -18244,7 +18244,7 @@
         <v>0.5803899765014648</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8843103051185608</v>
+        <v>0.5049243569374084</v>
       </c>
     </row>
     <row r="263" spans="1:22">
@@ -18312,7 +18312,7 @@
         <v>0.5359330177307129</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4552754163742065</v>
+        <v>0.5762282013893127</v>
       </c>
     </row>
     <row r="264" spans="1:22">
@@ -18380,7 +18380,7 @@
         <v>0.5241751670837402</v>
       </c>
       <c r="V264" t="n">
-        <v>0.7097801566123962</v>
+        <v>0.3507460951805115</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -18448,7 +18448,7 @@
         <v>0.5201199054718018</v>
       </c>
       <c r="V265" t="n">
-        <v>0.3859796524047852</v>
+        <v>0.4611094295978546</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -18516,7 +18516,7 @@
         <v>0.5223581790924072</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5379610061645508</v>
+        <v>0.490833193063736</v>
       </c>
     </row>
     <row r="267" spans="1:22">
@@ -18584,7 +18584,7 @@
         <v>0.5622568130493164</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5888757705688477</v>
+        <v>0.3514944016933441</v>
       </c>
     </row>
     <row r="268" spans="1:22">
@@ -18652,7 +18652,7 @@
         <v>0.522320032119751</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4036211967468262</v>
+        <v>0.8341859579086304</v>
       </c>
     </row>
     <row r="269" spans="1:22">
@@ -18720,7 +18720,7 @@
         <v>0.5264480113983154</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6086897850036621</v>
+        <v>0.8004976511001587</v>
       </c>
     </row>
     <row r="270" spans="1:22">
@@ -18788,7 +18788,7 @@
         <v>0.5224809646606445</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5887453556060791</v>
+        <v>0.6546903848648071</v>
       </c>
     </row>
     <row r="271" spans="1:22">
@@ -18856,7 +18856,7 @@
         <v>0.5219118595123291</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6896145939826965</v>
+        <v>0.6536403894424438</v>
       </c>
     </row>
     <row r="272" spans="1:22">
@@ -18924,7 +18924,7 @@
         <v>0.5325601100921631</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4841680526733398</v>
+        <v>0.8046457171440125</v>
       </c>
     </row>
     <row r="273" spans="1:22">
@@ -18992,7 +18992,7 @@
         <v>0.5309820175170898</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5379790663719177</v>
+        <v>0.5247749090194702</v>
       </c>
     </row>
     <row r="274" spans="1:22">
@@ -19060,7 +19060,7 @@
         <v>0.5350761413574219</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3609535694122314</v>
+        <v>0.8381872177124023</v>
       </c>
     </row>
     <row r="275" spans="1:22">
@@ -19128,7 +19128,7 @@
         <v>0.5228230953216553</v>
       </c>
       <c r="V275" t="n">
-        <v>0.3799396157264709</v>
+        <v>0.417663037776947</v>
       </c>
     </row>
     <row r="276" spans="1:22">
@@ -19196,7 +19196,7 @@
         <v>0.5218360424041748</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4851488471031189</v>
+        <v>0.3710145056247711</v>
       </c>
     </row>
     <row r="277" spans="1:22">
@@ -19264,7 +19264,7 @@
         <v>0.5197210311889648</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5379217863082886</v>
+        <v>0.4176499843597412</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -19332,7 +19332,7 @@
         <v>0.5819978713989258</v>
       </c>
       <c r="V278" t="n">
-        <v>0.587807834148407</v>
+        <v>0.3507409393787384</v>
       </c>
     </row>
     <row r="279" spans="1:22">
@@ -19400,7 +19400,7 @@
         <v>0.52565598487854</v>
       </c>
       <c r="V279" t="n">
-        <v>0.8844614028930664</v>
+        <v>0.5257673263549805</v>
       </c>
     </row>
     <row r="280" spans="1:22">
@@ -19468,7 +19468,7 @@
         <v>0.5217568874359131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4228060841560364</v>
+        <v>0.5762905478477478</v>
       </c>
     </row>
     <row r="281" spans="1:22">
@@ -19536,7 +19536,7 @@
         <v>0.5200741291046143</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5379660129547119</v>
+        <v>0.5036088228225708</v>
       </c>
     </row>
     <row r="282" spans="1:22">
@@ -19604,7 +19604,7 @@
         <v>0.3997402191162109</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6556221842765808</v>
+        <v>0.490370512008667</v>
       </c>
     </row>
     <row r="283" spans="1:22">
@@ -19672,7 +19672,7 @@
         <v>0.3985359668731689</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5659052133560181</v>
+        <v>0.4908800721168518</v>
       </c>
     </row>
     <row r="284" spans="1:22">
@@ -19740,7 +19740,7 @@
         <v>0.3998808860778809</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4802520871162415</v>
+        <v>0.4176412224769592</v>
       </c>
     </row>
     <row r="285" spans="1:22">
@@ -19808,7 +19808,7 @@
         <v>0.3987290859222412</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6490634083747864</v>
+        <v>0.5038111805915833</v>
       </c>
     </row>
     <row r="286" spans="1:22">
@@ -19876,7 +19876,7 @@
         <v>0.3982019424438477</v>
       </c>
       <c r="V286" t="n">
-        <v>0.689429759979248</v>
+        <v>0.4175510704517365</v>
       </c>
     </row>
     <row r="287" spans="1:22">
@@ -19944,7 +19944,7 @@
         <v>0.3971350193023682</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5378856658935547</v>
+        <v>0.3518537282943726</v>
       </c>
     </row>
     <row r="288" spans="1:22">
@@ -20012,7 +20012,7 @@
         <v>0.396536111831665</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8845577836036682</v>
+        <v>0.5037472248077393</v>
       </c>
     </row>
     <row r="289" spans="1:22">
@@ -20080,7 +20080,7 @@
         <v>0.4056761264801025</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4224058389663696</v>
+        <v>0.4175398349761963</v>
       </c>
     </row>
     <row r="290" spans="1:22">
@@ -20148,7 +20148,7 @@
         <v>0.4446420669555664</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5881587862968445</v>
+        <v>0.4611299932003021</v>
       </c>
     </row>
     <row r="291" spans="1:22">
@@ -20216,7 +20216,7 @@
         <v>0.3968877792358398</v>
       </c>
       <c r="V291" t="n">
-        <v>0.480705738067627</v>
+        <v>0.4638231992721558</v>
       </c>
     </row>
     <row r="292" spans="1:22">
@@ -20284,7 +20284,7 @@
         <v>0.398813009262085</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4224810004234314</v>
+        <v>0.4614620208740234</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -20352,7 +20352,7 @@
         <v>0.397514820098877</v>
       </c>
       <c r="V293" t="n">
-        <v>0.703600287437439</v>
+        <v>0.5247882604598999</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -20420,7 +20420,7 @@
         <v>0.3943510055541992</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5378709435462952</v>
+        <v>0.6542560458183289</v>
       </c>
     </row>
     <row r="295" spans="1:22">
@@ -20488,7 +20488,7 @@
         <v>0.3956589698791504</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4225040078163147</v>
+        <v>0.6928392648696899</v>
       </c>
     </row>
     <row r="296" spans="1:22">
@@ -20556,7 +20556,7 @@
         <v>0.448112964630127</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4408711791038513</v>
+        <v>0.6992341279983521</v>
       </c>
     </row>
     <row r="297" spans="1:22">
@@ -20624,7 +20624,7 @@
         <v>0.405472993850708</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3785778284072876</v>
+        <v>0.6928427815437317</v>
       </c>
     </row>
     <row r="298" spans="1:22">
@@ -20692,7 +20692,7 @@
         <v>0.3981130123138428</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4784874320030212</v>
+        <v>0.3712720274925232</v>
       </c>
     </row>
     <row r="299" spans="1:22">
@@ -20760,7 +20760,7 @@
         <v>0.3922698497772217</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4229405522346497</v>
+        <v>0.5051093101501465</v>
       </c>
     </row>
     <row r="300" spans="1:22">
@@ -20828,7 +20828,7 @@
         <v>0.3984370231628418</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5904473066329956</v>
+        <v>0.3719484806060791</v>
       </c>
     </row>
     <row r="301" spans="1:22">
@@ -20896,7 +20896,7 @@
         <v>0.3982150554656982</v>
       </c>
       <c r="V301" t="n">
-        <v>0.590424120426178</v>
+        <v>0.5822299122810364</v>
       </c>
     </row>
     <row r="302" spans="1:22">
